--- a/Comandos HTML-CSS-JS-PHP.xlsx
+++ b/Comandos HTML-CSS-JS-PHP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12354F33-F889-4598-AC53-54EB610116F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5006533-AE16-4FAB-8C34-5DABC7116EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="165" windowWidth="9855" windowHeight="10350" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="898">
   <si>
     <t>Descrição</t>
   </si>
@@ -2613,12 +2613,225 @@
   <si>
     <t>saida do mouse</t>
   </si>
+  <si>
+    <t>var c = 1</t>
+  </si>
+  <si>
+    <t>while ( c &lt;= 6){</t>
+  </si>
+  <si>
+    <t>    console.log('Tudo Bem!')</t>
+  </si>
+  <si>
+    <t>    c++ // c = c +1      }</t>
+  </si>
+  <si>
+    <t>laco de repetição</t>
+  </si>
+  <si>
+    <t>ira imprimir a mensagem 6 vezes</t>
+  </si>
+  <si>
+    <t>faça</t>
+  </si>
+  <si>
+    <t>do {}</t>
+  </si>
+  <si>
+    <t>do {</t>
+  </si>
+  <si>
+    <t>    console.log(`Passo ${c} `)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    c++ // c = c +1 </t>
+  </si>
+  <si>
+    <t>} while(c &lt;= 7)</t>
+  </si>
+  <si>
+    <t>for( var c =1; c &lt;= 5; c++){</t>
+  </si>
+  <si>
+    <t>    console.log(`${c}-Laco for`)    }</t>
+  </si>
+  <si>
+    <t>laco de repeticao FOR</t>
+  </si>
+  <si>
+    <t>if(ini.value.length == 0 || fim.value.length == 0 || passo.value.length == 0){</t>
+  </si>
+  <si>
+    <t>        alert('ERRO')</t>
+  </si>
+  <si>
+    <t>    }else{</t>
+  </si>
+  <si>
+    <t>        alert('funcionando')</t>
+  </si>
+  <si>
+    <t>verificar se tem erro</t>
+  </si>
+  <si>
+    <t>select {  overflow:hidden; }</t>
+  </si>
+  <si>
+    <t>tira a barra de rolagem</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>uma variavel com varios elementos</t>
+  </si>
+  <si>
+    <t>let num = [5, 8, 2, 9, 3]</t>
+  </si>
+  <si>
+    <t>//mostra quantos elementos tem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num.length </t>
+  </si>
+  <si>
+    <t>//num[3] = 4</t>
+  </si>
+  <si>
+    <t>adiciona um elemento no array na posição escolhida</t>
+  </si>
+  <si>
+    <t>console.log(num)</t>
+  </si>
+  <si>
+    <t>console.log(`O primeiro valor do vetore ${num[0]}`)</t>
+  </si>
+  <si>
+    <t>if (pos == -1){</t>
+  </si>
+  <si>
+    <t>    console.log('O valor não existe')</t>
+  </si>
+  <si>
+    <t>}else{</t>
+  </si>
+  <si>
+    <t>    console.log(`O valor esta na posição ${pos}`)</t>
+  </si>
+  <si>
+    <t>num.sort()</t>
+  </si>
+  <si>
+    <t>num.push(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">console.log(`O vetor tem ${num.length} posições`) </t>
+  </si>
+  <si>
+    <t>let pos = num.indexOf(8)</t>
+  </si>
+  <si>
+    <t>procura a posição do elemento</t>
+  </si>
+  <si>
+    <t>mostra quantos elementos tem</t>
+  </si>
+  <si>
+    <t>adicionarar um elemento no final do array</t>
+  </si>
+  <si>
+    <t>coloca os elementos na ordem crecente</t>
+  </si>
+  <si>
+    <t>let valores = [8, 1, 7, 4, 2, 9]</t>
+  </si>
+  <si>
+    <t>valores.sort()</t>
+  </si>
+  <si>
+    <t>for(let pos=0; pos &lt; valores.length; pos++){</t>
+  </si>
+  <si>
+    <t>for(let pos in valores){</t>
+  </si>
+  <si>
+    <t>    console.log(`A posição ${pos} tem o valor ${valores[pos]}` )</t>
+  </si>
+  <si>
+    <t>    console.log(`A posição ${pos} tem o valor ${valores[pos]}`)  }</t>
+  </si>
+  <si>
+    <t>//console.log(valores)</t>
+  </si>
+  <si>
+    <t>/* console.log(valores[0])</t>
+  </si>
+  <si>
+    <t>console.log(valores[1]) mostra vetor por vetor</t>
+  </si>
+  <si>
+    <t>console.log(valores[2])</t>
+  </si>
+  <si>
+    <t>console.log(valores[3])</t>
+  </si>
+  <si>
+    <t>console.log(valores[4])</t>
+  </si>
+  <si>
+    <t>console.log(valores[5]) */</t>
+  </si>
+  <si>
+    <t>se não fizer o if else quando procurar o elemento</t>
+  </si>
+  <si>
+    <t>e não achar ele moostra (-1)</t>
+  </si>
+  <si>
+    <t>    if(n%2 == 0){//função para ver se o numero e par</t>
+  </si>
+  <si>
+    <t>        return 'Par'</t>
+  </si>
+  <si>
+    <t>        return 'Impar'</t>
+  </si>
+  <si>
+    <t>let res = parimpar(3)</t>
+  </si>
+  <si>
+    <t>console.log(res)</t>
+  </si>
+  <si>
+    <t>function parimpar(n){</t>
+  </si>
+  <si>
+    <t>function soma(n1=0, n2=0){</t>
+  </si>
+  <si>
+    <t>    return n1 + n2</t>
+  </si>
+  <si>
+    <t>console.log(soma())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se não colocar nem um número ele ira inserir 0 </t>
+  </si>
+  <si>
+    <t>&lt;input type="range" &gt;</t>
+  </si>
+  <si>
+    <t>barra de carregamento</t>
+  </si>
+  <si>
+    <t>&lt;input type="range" name="num" id="inum" min="0" max="10" value="5"&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2791,6 +3004,13 @@
       <color rgb="FF020202"/>
       <name val="Poppins"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -2878,7 +3098,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2992,19 +3212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="4"/>
       </left>
@@ -3014,17 +3221,6 @@
       <top style="medium">
         <color theme="4"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color theme="4"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3251,12 +3447,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3394,30 +3627,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3430,22 +3651,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3480,15 +3701,21 @@
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3496,57 +3723,84 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="17"/>
@@ -4033,8 +4287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D309"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,7 +4550,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="84" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4346,208 +4600,208 @@
       <c r="A53" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="B53" s="90" t="s">
+      <c r="B53" s="86" t="s">
         <v>512</v>
       </c>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-    </row>
-    <row r="55" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+    </row>
+    <row r="55" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>514</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="86" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
         <v>515</v>
       </c>
-      <c r="B56" s="90" t="s">
+      <c r="B56" s="86" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55" t="s">
         <v>534</v>
       </c>
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="86" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="55" t="s">
         <v>537</v>
       </c>
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="86" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55"/>
     </row>
-    <row r="61" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55" t="s">
         <v>544</v>
       </c>
-      <c r="B61" s="90" t="s">
+      <c r="B61" s="86" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="55" t="s">
         <v>545</v>
       </c>
-      <c r="B62" s="90" t="s">
+      <c r="B62" s="86" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="55" t="s">
         <v>548</v>
       </c>
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="86" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
         <v>550</v>
       </c>
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="86" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55"/>
     </row>
-    <row r="66" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="55"/>
     </row>
-    <row r="67" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="55"/>
     </row>
-    <row r="68" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="83" t="s">
+    <row r="68" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="79" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="85" t="s">
+    <row r="69" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="81" t="s">
         <v>540</v>
       </c>
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="86" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="55"/>
     </row>
-    <row r="71" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="83" t="s">
+    <row r="71" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="79" t="s">
         <v>541</v>
       </c>
-      <c r="B71" s="90" t="s">
+      <c r="B71" s="86" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="85" t="s">
+    <row r="72" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="81" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="55"/>
     </row>
-    <row r="74" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="55"/>
     </row>
-    <row r="75" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="83" t="s">
+    <row r="75" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="79" t="s">
         <v>527</v>
       </c>
-      <c r="B75" s="90" t="s">
+      <c r="B75" s="86" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="84" t="s">
+    <row r="76" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="80" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="84" t="s">
+    <row r="77" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="80" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="85" t="s">
+    <row r="78" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="81" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="55"/>
     </row>
-    <row r="80" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="83" t="s">
+    <row r="80" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="79" t="s">
         <v>523</v>
       </c>
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="86" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="85" t="s">
+    <row r="81" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="81" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="55"/>
     </row>
-    <row r="83" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="83" t="s">
+    <row r="83" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="79" t="s">
         <v>529</v>
       </c>
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="86" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="85" t="s">
+    <row r="84" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="81" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="55"/>
     </row>
-    <row r="86" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="55" t="s">
         <v>554</v>
       </c>
-      <c r="B87" s="90" t="s">
+      <c r="B87" s="86" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="55" t="s">
         <v>236</v>
       </c>
@@ -5103,19 +5357,19 @@
       <c r="A186" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B186" s="95"/>
-    </row>
-    <row r="187" spans="1:2" s="90" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B186" s="91"/>
+    </row>
+    <row r="187" spans="1:2" s="86" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="B187" s="89"/>
-    </row>
-    <row r="188" spans="1:2" s="90" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B187" s="85"/>
+    </row>
+    <row r="188" spans="1:2" s="86" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="B188" s="89" t="s">
+      <c r="B188" s="85" t="s">
         <v>581</v>
       </c>
     </row>
@@ -5251,7 +5505,7 @@
       <c r="A206" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="B206" s="111" t="s">
+      <c r="B206" s="107" t="s">
         <v>778</v>
       </c>
     </row>
@@ -5288,11 +5542,17 @@
       </c>
     </row>
     <row r="212" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A212" s="55"/>
-      <c r="B212" s="11"/>
+      <c r="A212" s="55" t="s">
+        <v>895</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="213" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A213" s="55"/>
+      <c r="A213" s="55" t="s">
+        <v>897</v>
+      </c>
       <c r="B213" s="11"/>
     </row>
     <row r="214" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5314,7 +5574,7 @@
       <c r="B217" s="11"/>
     </row>
     <row r="218" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A218" s="92" t="s">
+      <c r="A218" s="88" t="s">
         <v>583</v>
       </c>
       <c r="B218" s="11" t="s">
@@ -5322,7 +5582,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A219" s="94" t="s">
+      <c r="A219" s="90" t="s">
         <v>584</v>
       </c>
       <c r="B219" s="11"/>
@@ -5382,12 +5642,12 @@
       <c r="B230" s="11"/>
     </row>
     <row r="231" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A231" s="121" t="s">
+      <c r="A231" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B231" s="121"/>
-      <c r="C231" s="121"/>
-      <c r="D231" s="121"/>
+      <c r="B231" s="128"/>
+      <c r="C231" s="128"/>
+      <c r="D231" s="128"/>
     </row>
     <row r="232" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
@@ -5438,7 +5698,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A238" s="120" t="s">
+      <c r="A238" s="116" t="s">
         <v>782</v>
       </c>
       <c r="B238" s="11" t="s">
@@ -5526,7 +5786,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="91" t="s">
+      <c r="A262" s="87" t="s">
         <v>563</v>
       </c>
       <c r="B262" t="s">
@@ -5534,7 +5794,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="91" t="s">
+      <c r="A263" s="87" t="s">
         <v>564</v>
       </c>
       <c r="B263" t="s">
@@ -5899,13 +6159,13 @@
       <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="108" t="s">
         <v>739</v>
       </c>
       <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="109" t="s">
         <v>738</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -5913,17 +6173,17 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="114" t="s">
+      <c r="A28" s="110" t="s">
         <v>737</v>
       </c>
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="115"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="112" t="s">
         <v>741</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -5931,17 +6191,17 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="106" t="s">
         <v>742</v>
       </c>
       <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="115"/>
+      <c r="A32" s="111"/>
       <c r="B32" s="11"/>
     </row>
     <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="113" t="s">
         <v>744</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -5949,22 +6209,22 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="114" t="s">
         <v>747</v>
       </c>
       <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="115" t="s">
         <v>746</v>
       </c>
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="115"/>
+      <c r="A36" s="111"/>
     </row>
     <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="113" t="s">
         <v>748</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -5972,17 +6232,17 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="119" t="s">
+      <c r="A38" s="115" t="s">
         <v>749</v>
       </c>
       <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="115"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="113" t="s">
         <v>751</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -5990,23 +6250,23 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="105" t="s">
         <v>752</v>
       </c>
       <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="106" t="s">
         <v>753</v>
       </c>
       <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="115"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="116" t="s">
+      <c r="A44" s="112" t="s">
         <v>755</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -6014,23 +6274,23 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="105" t="s">
         <v>757</v>
       </c>
       <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="106" t="s">
         <v>756</v>
       </c>
       <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="115"/>
+      <c r="A47" s="111"/>
       <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="116" t="s">
+      <c r="A48" s="112" t="s">
         <v>759</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -6038,17 +6298,17 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="106" t="s">
         <v>760</v>
       </c>
       <c r="B49" s="11"/>
     </row>
     <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="115"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="11"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="116" t="s">
+      <c r="A51" s="112" t="s">
         <v>762</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -6056,17 +6316,17 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="106" t="s">
         <v>763</v>
       </c>
       <c r="B52" s="11"/>
     </row>
     <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="115"/>
+      <c r="A53" s="111"/>
       <c r="B53" s="11"/>
     </row>
     <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="116" t="s">
+      <c r="A54" s="112" t="s">
         <v>766</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -6074,17 +6334,17 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="110" t="s">
+      <c r="A55" s="106" t="s">
         <v>767</v>
       </c>
       <c r="B55" s="11"/>
     </row>
     <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="115"/>
+      <c r="A56" s="111"/>
       <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="113" t="s">
         <v>768</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -6092,89 +6352,89 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="118" t="s">
+      <c r="A58" s="114" t="s">
         <v>769</v>
       </c>
       <c r="B58" s="11"/>
     </row>
     <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="118" t="s">
+      <c r="A59" s="114" t="s">
         <v>770</v>
       </c>
       <c r="B59" s="11"/>
     </row>
     <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="118" t="s">
+      <c r="A60" s="114" t="s">
         <v>771</v>
       </c>
       <c r="B60" s="11"/>
     </row>
     <row r="61" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="118" t="s">
+      <c r="A61" s="114" t="s">
         <v>701</v>
       </c>
       <c r="B61" s="11"/>
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="119" t="s">
+      <c r="A62" s="115" t="s">
         <v>772</v>
       </c>
       <c r="B62" s="11"/>
     </row>
     <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="115"/>
+      <c r="A63" s="111"/>
       <c r="B63" s="11"/>
     </row>
     <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="115"/>
+      <c r="A64" s="111"/>
       <c r="B64" s="11"/>
     </row>
     <row r="65" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="115"/>
+      <c r="A65" s="111"/>
       <c r="B65" s="11"/>
     </row>
     <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
+      <c r="A66" s="111"/>
       <c r="B66" s="11"/>
     </row>
     <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="115"/>
+      <c r="A67" s="111"/>
       <c r="B67" s="11"/>
     </row>
     <row r="68" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="115"/>
+      <c r="A68" s="111"/>
       <c r="B68" s="11"/>
     </row>
     <row r="69" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="115"/>
+      <c r="A69" s="111"/>
       <c r="B69" s="11"/>
     </row>
     <row r="70" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="115"/>
+      <c r="A70" s="111"/>
       <c r="B70" s="11"/>
     </row>
     <row r="71" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="115"/>
+      <c r="A71" s="111"/>
       <c r="B71" s="11"/>
     </row>
     <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="115"/>
+      <c r="A72" s="111"/>
       <c r="B72" s="11"/>
     </row>
     <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="115"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="11"/>
     </row>
     <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="115"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="11"/>
     </row>
     <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="115"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="115"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6198,19 +6458,19 @@
       <c r="B81" s="11"/>
     </row>
     <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="102" t="s">
+      <c r="A82" s="98" t="s">
         <v>676</v>
       </c>
       <c r="B82" s="11"/>
     </row>
     <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="103" t="s">
+      <c r="A83" s="99" t="s">
         <v>677</v>
       </c>
       <c r="B83" s="11"/>
     </row>
     <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="103" t="s">
+      <c r="A84" s="99" t="s">
         <v>678</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -6218,7 +6478,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="104" t="s">
+      <c r="A85" s="100" t="s">
         <v>679</v>
       </c>
       <c r="B85" s="11"/>
@@ -6228,55 +6488,55 @@
       <c r="B86" s="11"/>
     </row>
     <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="102" t="s">
+      <c r="A87" s="98" t="s">
         <v>681</v>
       </c>
       <c r="B87" s="11"/>
     </row>
     <row r="88" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="103" t="s">
+      <c r="A88" s="99" t="s">
         <v>682</v>
       </c>
       <c r="B88" s="11"/>
     </row>
     <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="103" t="s">
+      <c r="A89" s="99" t="s">
         <v>683</v>
       </c>
       <c r="B89" s="11"/>
     </row>
     <row r="90" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="103" t="s">
+      <c r="A90" s="99" t="s">
         <v>684</v>
       </c>
       <c r="B90" s="11"/>
     </row>
     <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="103" t="s">
+      <c r="A91" s="99" t="s">
         <v>685</v>
       </c>
       <c r="B91" s="11"/>
     </row>
     <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="103" t="s">
+      <c r="A92" s="99" t="s">
         <v>686</v>
       </c>
       <c r="B92" s="11"/>
     </row>
     <row r="93" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="103" t="s">
+      <c r="A93" s="99" t="s">
         <v>687</v>
       </c>
       <c r="B93" s="11"/>
     </row>
     <row r="94" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="103" t="s">
+      <c r="A94" s="99" t="s">
         <v>688</v>
       </c>
       <c r="B94" s="11"/>
     </row>
     <row r="95" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="104" t="s">
+      <c r="A95" s="100" t="s">
         <v>689</v>
       </c>
       <c r="B95" s="11"/>
@@ -6286,7 +6546,7 @@
       <c r="B96" s="11"/>
     </row>
     <row r="97" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="102" t="s">
+      <c r="A97" s="98" t="s">
         <v>690</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -6294,55 +6554,55 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="103" t="s">
+      <c r="A98" s="99" t="s">
         <v>691</v>
       </c>
       <c r="B98" s="11"/>
     </row>
     <row r="99" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="103" t="s">
+      <c r="A99" s="99" t="s">
         <v>692</v>
       </c>
       <c r="B99" s="11"/>
     </row>
     <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="103" t="s">
+      <c r="A100" s="99" t="s">
         <v>683</v>
       </c>
       <c r="B100" s="11"/>
     </row>
     <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="103" t="s">
+      <c r="A101" s="99" t="s">
         <v>684</v>
       </c>
       <c r="B101" s="11"/>
     </row>
     <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="103" t="s">
+      <c r="A102" s="99" t="s">
         <v>685</v>
       </c>
       <c r="B102" s="11"/>
     </row>
     <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="103" t="s">
+      <c r="A103" s="99" t="s">
         <v>686</v>
       </c>
       <c r="B103" s="11"/>
     </row>
     <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="103" t="s">
+      <c r="A104" s="99" t="s">
         <v>687</v>
       </c>
       <c r="B104" s="11"/>
     </row>
     <row r="105" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="103" t="s">
+      <c r="A105" s="99" t="s">
         <v>688</v>
       </c>
       <c r="B105" s="11"/>
     </row>
     <row r="106" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="104" t="s">
+      <c r="A106" s="100" t="s">
         <v>689</v>
       </c>
       <c r="B106" s="11"/>
@@ -6428,7 +6688,7 @@
       <c r="B126" s="11"/>
     </row>
     <row r="127" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A127" s="96" t="s">
+      <c r="A127" s="92" t="s">
         <v>694</v>
       </c>
       <c r="B127" s="11"/>
@@ -6438,7 +6698,7 @@
       <c r="B128" s="11"/>
     </row>
     <row r="129" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="97" t="s">
+      <c r="A129" s="93" t="s">
         <v>623</v>
       </c>
       <c r="B129" s="11" t="s">
@@ -6446,25 +6706,25 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A130" s="98" t="s">
+      <c r="A130" s="94" t="s">
         <v>620</v>
       </c>
       <c r="B130" s="11"/>
     </row>
     <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="98" t="s">
+      <c r="A131" s="94" t="s">
         <v>621</v>
       </c>
       <c r="B131" s="11"/>
     </row>
     <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A132" s="98" t="s">
+      <c r="A132" s="94" t="s">
         <v>622</v>
       </c>
       <c r="B132" s="11"/>
     </row>
     <row r="133" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="101" t="s">
+      <c r="A133" s="97" t="s">
         <v>624</v>
       </c>
       <c r="B133" s="11"/>
@@ -6474,7 +6734,7 @@
       <c r="B134" s="11"/>
     </row>
     <row r="135" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="97" t="s">
+      <c r="A135" s="93" t="s">
         <v>626</v>
       </c>
       <c r="B135" s="11" t="s">
@@ -6482,7 +6742,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="98" t="s">
+      <c r="A136" s="94" t="s">
         <v>627</v>
       </c>
       <c r="B136" s="11" t="s">
@@ -6490,31 +6750,31 @@
       </c>
     </row>
     <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="98" t="s">
+      <c r="A137" s="94" t="s">
         <v>628</v>
       </c>
       <c r="B137" s="11"/>
     </row>
     <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="98" t="s">
+      <c r="A138" s="94" t="s">
         <v>629</v>
       </c>
       <c r="B138" s="11"/>
     </row>
     <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A139" s="98" t="s">
+      <c r="A139" s="94" t="s">
         <v>630</v>
       </c>
       <c r="B139" s="11"/>
     </row>
     <row r="140" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A140" s="98" t="s">
+      <c r="A140" s="94" t="s">
         <v>631</v>
       </c>
       <c r="B140" s="11"/>
     </row>
     <row r="141" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="101" t="s">
+      <c r="A141" s="97" t="s">
         <v>629</v>
       </c>
       <c r="B141" s="11"/>
@@ -6524,7 +6784,7 @@
       <c r="B142" s="11"/>
     </row>
     <row r="143" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="97" t="s">
+      <c r="A143" s="93" t="s">
         <v>611</v>
       </c>
       <c r="B143" s="11" t="s">
@@ -6532,19 +6792,19 @@
       </c>
     </row>
     <row r="144" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A144" s="98" t="s">
+      <c r="A144" s="94" t="s">
         <v>614</v>
       </c>
       <c r="B144" s="11"/>
     </row>
     <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A145" s="98" t="s">
+      <c r="A145" s="94" t="s">
         <v>612</v>
       </c>
       <c r="B145" s="11"/>
     </row>
     <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="105" t="s">
+      <c r="A146" s="101" t="s">
         <v>639</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -6552,7 +6812,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A147" s="98" t="s">
+      <c r="A147" s="94" t="s">
         <v>634</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -6560,13 +6820,13 @@
       </c>
     </row>
     <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A148" s="98" t="s">
+      <c r="A148" s="94" t="s">
         <v>616</v>
       </c>
       <c r="B148" s="11"/>
     </row>
     <row r="149" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A149" s="98" t="s">
+      <c r="A149" s="94" t="s">
         <v>615</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -6574,19 +6834,19 @@
       </c>
     </row>
     <row r="150" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A150" s="98" t="s">
+      <c r="A150" s="94" t="s">
         <v>617</v>
       </c>
       <c r="B150" s="11"/>
     </row>
     <row r="151" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A151" s="98" t="s">
+      <c r="A151" s="94" t="s">
         <v>613</v>
       </c>
       <c r="B151" s="11"/>
     </row>
     <row r="152" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="101" t="s">
+      <c r="A152" s="97" t="s">
         <v>618</v>
       </c>
       <c r="B152" s="11"/>
@@ -6596,7 +6856,7 @@
       <c r="B153" s="11"/>
     </row>
     <row r="154" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="97" t="s">
+      <c r="A154" s="93" t="s">
         <v>651</v>
       </c>
       <c r="B154" s="11" t="s">
@@ -6604,7 +6864,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="98" t="s">
+      <c r="A155" s="94" t="s">
         <v>652</v>
       </c>
       <c r="B155" s="11" t="s">
@@ -6612,7 +6872,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A156" s="98" t="s">
+      <c r="A156" s="94" t="s">
         <v>641</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -6620,53 +6880,53 @@
       </c>
     </row>
     <row r="157" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A157" s="98" t="s">
+      <c r="A157" s="94" t="s">
         <v>642</v>
       </c>
       <c r="B157" s="11"/>
     </row>
     <row r="158" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A158" s="98" t="s">
+      <c r="A158" s="94" t="s">
         <v>643</v>
       </c>
       <c r="B158" s="11"/>
     </row>
     <row r="159" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A159" s="98" t="s">
+      <c r="A159" s="94" t="s">
         <v>644</v>
       </c>
       <c r="B159" s="11"/>
     </row>
     <row r="160" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="98" t="s">
+      <c r="A160" s="94" t="s">
         <v>645</v>
       </c>
       <c r="B160" s="11"/>
     </row>
     <row r="161" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A161" s="98" t="s">
+      <c r="A161" s="94" t="s">
         <v>646</v>
       </c>
       <c r="B161" s="11"/>
     </row>
     <row r="162" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A162" s="98" t="s">
+      <c r="A162" s="94" t="s">
         <v>647</v>
       </c>
       <c r="B162" s="11"/>
     </row>
     <row r="163" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A163" s="98" t="s">
+      <c r="A163" s="94" t="s">
         <v>648</v>
       </c>
       <c r="B163" s="11"/>
     </row>
     <row r="164" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A164" s="98"/>
+      <c r="A164" s="94"/>
       <c r="B164" s="11"/>
     </row>
     <row r="165" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A165" s="99" t="s">
+      <c r="A165" s="95" t="s">
         <v>655</v>
       </c>
       <c r="B165" s="11" t="s">
@@ -6674,13 +6934,13 @@
       </c>
     </row>
     <row r="166" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A166" s="98" t="s">
+      <c r="A166" s="94" t="s">
         <v>654</v>
       </c>
       <c r="B166" s="11"/>
     </row>
     <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="100" t="s">
+      <c r="A167" s="96" t="s">
         <v>658</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -6688,13 +6948,13 @@
       </c>
     </row>
     <row r="168" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A168" s="98" t="s">
+      <c r="A168" s="94" t="s">
         <v>656</v>
       </c>
       <c r="B168" s="11"/>
     </row>
     <row r="169" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="101" t="s">
+      <c r="A169" s="97" t="s">
         <v>613</v>
       </c>
       <c r="B169" s="11"/>
@@ -6722,7 +6982,7 @@
       <c r="B173" s="11"/>
     </row>
     <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A174" s="102" t="s">
+      <c r="A174" s="98" t="s">
         <v>651</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -6730,43 +6990,43 @@
       </c>
     </row>
     <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A175" s="103" t="s">
+      <c r="A175" s="99" t="s">
         <v>612</v>
       </c>
       <c r="B175" s="11"/>
     </row>
     <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A176" s="103" t="s">
+      <c r="A176" s="99" t="s">
         <v>669</v>
       </c>
       <c r="B176" s="11"/>
     </row>
     <row r="177" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A177" s="103" t="s">
+      <c r="A177" s="99" t="s">
         <v>613</v>
       </c>
       <c r="B177" s="11"/>
     </row>
     <row r="178" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A178" s="103" t="s">
+      <c r="A178" s="99" t="s">
         <v>665</v>
       </c>
       <c r="B178" s="11"/>
     </row>
     <row r="179" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A179" s="103" t="s">
+      <c r="A179" s="99" t="s">
         <v>666</v>
       </c>
       <c r="B179" s="11"/>
     </row>
     <row r="180" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A180" s="103" t="s">
+      <c r="A180" s="99" t="s">
         <v>667</v>
       </c>
       <c r="B180" s="11"/>
     </row>
     <row r="181" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="104" t="s">
+      <c r="A181" s="100" t="s">
         <v>613</v>
       </c>
       <c r="B181" s="11"/>
@@ -6776,7 +7036,7 @@
       <c r="B182" s="11"/>
     </row>
     <row r="183" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A183" s="106" t="s">
+      <c r="A183" s="102" t="s">
         <v>695</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -6784,40 +7044,40 @@
       </c>
     </row>
     <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="107" t="s">
+      <c r="A184" s="103" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="107" t="s">
+      <c r="A185" s="103" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="107" t="s">
+      <c r="A186" s="103" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="108"/>
+      <c r="A187" s="104"/>
     </row>
     <row r="188" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="109" t="s">
+      <c r="A188" s="105" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="109" t="s">
+      <c r="A189" s="105" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="109" t="s">
+      <c r="A190" s="105" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="110" t="s">
+      <c r="A191" s="106" t="s">
         <v>701</v>
       </c>
     </row>
@@ -6847,7 +7107,7 @@
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="87" t="s">
+      <c r="A202" s="83" t="s">
         <v>787</v>
       </c>
     </row>
@@ -6864,8 +7124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF404A17-505C-47C1-BA5C-9EC05B6288D3}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7207,16 +7467,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="122" t="s">
+      <c r="A50" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="122"/>
+      <c r="B50" s="129"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="123"/>
+      <c r="B51" s="130"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
@@ -7650,7 +7910,7 @@
       <c r="B121" s="11"/>
     </row>
     <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A122" s="92" t="s">
+      <c r="A122" s="88" t="s">
         <v>573</v>
       </c>
       <c r="B122" s="11" t="s">
@@ -7658,18 +7918,18 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="93" t="s">
+      <c r="A123" s="89" t="s">
         <v>570</v>
       </c>
       <c r="B123" s="11"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="94" t="s">
+      <c r="A124" s="90" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A127" s="86" t="s">
+      <c r="A127" s="82" t="s">
         <v>485</v>
       </c>
     </row>
@@ -7752,7 +8012,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="89"/>
+      <c r="A138" s="85"/>
       <c r="B138" s="11"/>
     </row>
     <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7776,8 +8036,12 @@
       <c r="B142" s="11"/>
     </row>
     <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
+      <c r="A143" s="55" t="s">
+        <v>847</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="144" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
@@ -7816,7 +8080,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="83" t="s">
         <v>499</v>
       </c>
       <c r="B4" t="s">
@@ -7871,271 +8135,279 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC532328-B521-42C9-AA9E-F5616725D26D}">
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:C330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="122.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>407</v>
+        <v>849</v>
       </c>
       <c r="B1" t="s">
-        <v>406</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>471</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>474</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>332</v>
-      </c>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>796</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
-        <v>801</v>
+        <v>377</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
         <v>803</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="B21" s="11"/>
+        <v>806</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
+    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="55" t="s">
         <v>812</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>814</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="B31" s="11"/>
+        <v>822</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-    </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
@@ -8153,911 +8425,1053 @@
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="118" t="s">
+        <v>827</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
+      <c r="A41" s="119" t="s">
+        <v>828</v>
+      </c>
       <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
+      <c r="A42" s="119" t="s">
+        <v>829</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="120" t="s">
+        <v>830</v>
+      </c>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
+    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="117"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="58"/>
+    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="118" t="s">
+        <v>827</v>
+      </c>
       <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="119" t="s">
+        <v>835</v>
+      </c>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="119" t="s">
+        <v>836</v>
+      </c>
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="119" t="s">
+        <v>837</v>
+      </c>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="120" t="s">
+        <v>838</v>
+      </c>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="117"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="118" t="s">
+        <v>839</v>
+      </c>
+      <c r="B51" s="117" t="s">
+        <v>841</v>
+      </c>
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="120" t="s">
+        <v>840</v>
+      </c>
+      <c r="B52" s="117"/>
+      <c r="C52" s="11"/>
+    </row>
+    <row r="53" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="117"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="118" t="s">
+        <v>842</v>
+      </c>
+      <c r="B54" s="117" t="s">
+        <v>846</v>
+      </c>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="127" t="s">
+        <v>843</v>
+      </c>
+      <c r="B55" s="117"/>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="119" t="s">
+        <v>844</v>
+      </c>
+      <c r="B56" s="117"/>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="119" t="s">
+        <v>845</v>
+      </c>
+      <c r="B57" s="117"/>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="120" t="s">
+        <v>613</v>
+      </c>
+      <c r="B58" s="117"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="117"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="55" t="s">
+        <v>853</v>
+      </c>
+      <c r="B60" s="117" t="s">
+        <v>852</v>
+      </c>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="117"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="11"/>
+    </row>
+    <row r="62" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="118" t="s">
+        <v>851</v>
+      </c>
+      <c r="B62" s="117"/>
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="119" t="s">
+        <v>854</v>
+      </c>
+      <c r="B63" s="117" t="s">
+        <v>855</v>
+      </c>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="119" t="s">
+        <v>862</v>
+      </c>
+      <c r="B64" s="117" t="s">
+        <v>869</v>
+      </c>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="119" t="s">
+        <v>863</v>
+      </c>
+      <c r="B65" s="117" t="s">
+        <v>868</v>
+      </c>
+      <c r="C65" s="11"/>
+    </row>
+    <row r="66" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="119" t="s">
+        <v>856</v>
+      </c>
+      <c r="B66" s="117"/>
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="119" t="s">
+        <v>864</v>
+      </c>
+      <c r="B67" s="117" t="s">
+        <v>867</v>
+      </c>
+      <c r="C67" s="11"/>
+    </row>
+    <row r="68" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="119" t="s">
+        <v>857</v>
+      </c>
+      <c r="B68" s="117"/>
+      <c r="C68" s="11"/>
+    </row>
+    <row r="69" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="119" t="s">
+        <v>865</v>
+      </c>
+      <c r="B69" s="117" t="s">
+        <v>866</v>
+      </c>
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="119" t="s">
+        <v>858</v>
+      </c>
+      <c r="B70" s="118" t="s">
+        <v>883</v>
+      </c>
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="119" t="s">
+        <v>859</v>
+      </c>
+      <c r="B71" s="120" t="s">
+        <v>884</v>
+      </c>
+      <c r="C71" s="11"/>
+    </row>
+    <row r="72" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="119" t="s">
+        <v>860</v>
+      </c>
+      <c r="B72" s="117"/>
+      <c r="C72" s="11"/>
+    </row>
+    <row r="73" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="119" t="s">
+        <v>861</v>
+      </c>
+      <c r="B73" s="117"/>
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="120" t="s">
+        <v>476</v>
+      </c>
+      <c r="B74" s="117"/>
+      <c r="C74" s="11"/>
+    </row>
+    <row r="75" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="117"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="11"/>
+    </row>
+    <row r="76" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="118" t="s">
+        <v>870</v>
+      </c>
+      <c r="B76" s="117"/>
+      <c r="C76" s="11"/>
+    </row>
+    <row r="77" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="119" t="s">
+        <v>871</v>
+      </c>
+      <c r="B77" s="117" t="s">
+        <v>869</v>
+      </c>
+      <c r="C77" s="11"/>
+    </row>
+    <row r="78" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="119" t="s">
+        <v>872</v>
+      </c>
+      <c r="B78" s="117"/>
+      <c r="C78" s="11"/>
+    </row>
+    <row r="79" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="120" t="s">
+        <v>875</v>
+      </c>
+      <c r="B79" s="117"/>
+      <c r="C79" s="11"/>
+    </row>
+    <row r="80" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="117"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="118" t="s">
+        <v>870</v>
+      </c>
+      <c r="B81" s="117"/>
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="119" t="s">
+        <v>871</v>
+      </c>
+      <c r="B82" s="117" t="s">
+        <v>869</v>
+      </c>
+      <c r="C82" s="11"/>
+    </row>
+    <row r="83" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="119" t="s">
+        <v>873</v>
+      </c>
+      <c r="B83" s="117"/>
+      <c r="C83" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="119" t="s">
+        <v>874</v>
+      </c>
+      <c r="B84" s="117"/>
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="120" t="s">
+        <v>476</v>
+      </c>
+      <c r="B85" s="117"/>
+      <c r="C85" s="11"/>
+    </row>
+    <row r="86" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="117"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="11"/>
+    </row>
+    <row r="87" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="118" t="s">
+        <v>876</v>
+      </c>
+      <c r="B87" s="117"/>
+      <c r="C87" s="11"/>
+    </row>
+    <row r="88" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="119" t="s">
+        <v>877</v>
+      </c>
+      <c r="B88" s="117"/>
+      <c r="C88" s="11"/>
+    </row>
+    <row r="89" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="119" t="s">
+        <v>878</v>
+      </c>
+      <c r="B89" s="117"/>
+      <c r="C89" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="119" t="s">
+        <v>879</v>
+      </c>
+      <c r="B90" s="117"/>
+      <c r="C90" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="119" t="s">
+        <v>880</v>
+      </c>
+      <c r="B91" s="117"/>
+      <c r="C91" s="11"/>
+    </row>
+    <row r="92" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="119" t="s">
+        <v>881</v>
+      </c>
+      <c r="B92" s="117"/>
+      <c r="C92" s="11"/>
+    </row>
+    <row r="93" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="120" t="s">
+        <v>882</v>
+      </c>
+      <c r="B93" s="117"/>
+      <c r="C93" s="11"/>
+    </row>
+    <row r="94" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="117"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="118" t="s">
+        <v>890</v>
+      </c>
+      <c r="B95" s="117"/>
+      <c r="C95" s="11"/>
+    </row>
+    <row r="96" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="119" t="s">
+        <v>885</v>
+      </c>
+      <c r="B96" s="117"/>
+      <c r="C96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="119" t="s">
+        <v>886</v>
+      </c>
+      <c r="B97" s="117"/>
+      <c r="C97" s="11"/>
+    </row>
+    <row r="98" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="119" t="s">
+        <v>844</v>
+      </c>
+      <c r="B98" s="117"/>
+      <c r="C98" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="119" t="s">
+        <v>887</v>
+      </c>
+      <c r="B99" s="117"/>
+      <c r="C99" s="11"/>
+    </row>
+    <row r="100" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="119" t="s">
+        <v>613</v>
+      </c>
+      <c r="B100" s="117"/>
+      <c r="C100" s="11"/>
+    </row>
+    <row r="101" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="119" t="s">
+        <v>476</v>
+      </c>
+      <c r="B101" s="117"/>
+      <c r="C101" s="11"/>
+    </row>
+    <row r="102" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="119" t="s">
+        <v>888</v>
+      </c>
+      <c r="B102" s="117"/>
+      <c r="C102" s="11"/>
+    </row>
+    <row r="103" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="120" t="s">
+        <v>889</v>
+      </c>
+      <c r="B103" s="117"/>
+      <c r="C103" s="11"/>
+    </row>
+    <row r="104" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="117"/>
+      <c r="B104" s="117"/>
+      <c r="C104" s="11"/>
+    </row>
+    <row r="105" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="118" t="s">
+        <v>891</v>
+      </c>
+      <c r="B105" s="117" t="s">
+        <v>894</v>
+      </c>
+      <c r="C105" s="11"/>
+    </row>
+    <row r="106" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="119" t="s">
+        <v>892</v>
+      </c>
+      <c r="B106" s="117"/>
+      <c r="C106" s="11"/>
+    </row>
+    <row r="107" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="119" t="s">
+        <v>476</v>
+      </c>
+      <c r="B107" s="117"/>
+      <c r="C107" s="11"/>
+    </row>
+    <row r="108" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="120" t="s">
+        <v>893</v>
+      </c>
+      <c r="B108" s="117"/>
+      <c r="C108" s="11"/>
+    </row>
+    <row r="109" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="117"/>
+      <c r="B109" s="117"/>
+      <c r="C109" s="11"/>
+    </row>
+    <row r="110" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="117"/>
+      <c r="B110" s="117"/>
+      <c r="C110" s="11"/>
+    </row>
+    <row r="111" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="117"/>
+      <c r="B111" s="117"/>
+      <c r="C111" s="11"/>
+    </row>
+    <row r="112" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="117"/>
+      <c r="B112" s="117"/>
+      <c r="C112" s="11"/>
+    </row>
+    <row r="113" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="117"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="11"/>
+    </row>
+    <row r="114" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B114" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" s="11"/>
+    </row>
+    <row r="115" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B115" s="55"/>
+      <c r="C115" s="11"/>
+    </row>
+    <row r="116" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="55"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="11"/>
+    </row>
+    <row r="117" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="121" t="s">
         <v>357</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B117" s="11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="61" t="s">
+    <row r="118" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="122" t="s">
         <v>358</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B118" s="11" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-    </row>
-    <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="59" t="s">
+    <row r="119" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+    </row>
+    <row r="120" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="123" t="s">
         <v>361</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B120" s="11" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="62" t="s">
+    <row r="121" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="124" t="s">
         <v>362</v>
       </c>
-      <c r="B50" s="11"/>
-    </row>
-    <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="62" t="s">
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="124" t="s">
         <v>363</v>
       </c>
-      <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="64" t="s">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="125" t="s">
         <v>365</v>
       </c>
-      <c r="B52" s="11"/>
-    </row>
-    <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="59" t="s">
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="123" t="s">
         <v>371</v>
       </c>
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="62" t="s">
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" s="124" t="s">
         <v>362</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B126" s="11" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="62" t="s">
+    <row r="127" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A127" s="124" t="s">
         <v>363</v>
       </c>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="63" t="s">
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="126" t="s">
         <v>372</v>
       </c>
-      <c r="B57" s="11"/>
-    </row>
-    <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="59" t="s">
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" s="123" t="s">
         <v>357</v>
       </c>
-      <c r="B59" s="11"/>
-    </row>
-    <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="62" t="s">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="124" t="s">
         <v>374</v>
       </c>
-      <c r="B60" s="11"/>
-    </row>
-    <row r="61" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="62" t="s">
+      <c r="B131" s="11"/>
+    </row>
+    <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="124" t="s">
         <v>375</v>
       </c>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="63" t="s">
+      <c r="B132" s="11"/>
+    </row>
+    <row r="133" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="B133" s="11"/>
+    </row>
+    <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+    </row>
+    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B135" s="11" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B136" s="11" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+    <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A137" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B137" s="11" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="36" t="s">
+    <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A138" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B138" s="11" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="12"/>
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="59" t="s">
+    <row r="139" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="12"/>
+      <c r="B139" s="11"/>
+    </row>
+    <row r="140" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A140" s="123" t="s">
         <v>431</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B140" s="11" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="63" t="s">
+    <row r="141" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="126" t="s">
         <v>432</v>
       </c>
-      <c r="B70" s="11"/>
-    </row>
-    <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="76"/>
-      <c r="B71" s="11"/>
-    </row>
-    <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="59" t="s">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="72"/>
+      <c r="B142" s="11"/>
+    </row>
+    <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A143" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B143" s="11" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="63" t="s">
+    <row r="144" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="60" t="s">
         <v>434</v>
       </c>
-      <c r="B73" s="11"/>
-    </row>
-    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="57"/>
-      <c r="B74" s="11"/>
-    </row>
-    <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="59" t="s">
+      <c r="B144" s="11"/>
+    </row>
+    <row r="145" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="57"/>
+      <c r="B145" s="11"/>
+    </row>
+    <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A146" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B146" s="11" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="63" t="s">
+    <row r="147" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="36"/>
-      <c r="B77" s="11"/>
-    </row>
-    <row r="78" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="36" t="s">
+      <c r="B147" s="11"/>
+    </row>
+    <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A148" s="36"/>
+      <c r="B148" s="11"/>
+    </row>
+    <row r="149" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A149" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="75" t="s">
+      <c r="B149" s="11"/>
+    </row>
+    <row r="150" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A150" s="71" t="s">
         <v>439</v>
       </c>
-      <c r="B79" s="11"/>
-    </row>
-    <row r="80" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="36"/>
-      <c r="B80" s="11"/>
-    </row>
-    <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="77" t="s">
+      <c r="B150" s="11"/>
+    </row>
+    <row r="151" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A151" s="36"/>
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A152" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B152" s="11" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="78" t="s">
+    <row r="153" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A153" s="74" t="s">
         <v>441</v>
       </c>
-      <c r="B82" s="11"/>
-    </row>
-    <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="79" t="s">
+      <c r="B153" s="11"/>
+    </row>
+    <row r="154" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A154" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="B83" s="11"/>
-    </row>
-    <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="36"/>
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="77" t="s">
+      <c r="B154" s="11"/>
+    </row>
+    <row r="155" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A155" s="36"/>
+      <c r="B155" s="11"/>
+    </row>
+    <row r="156" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A156" s="73" t="s">
         <v>444</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B156" s="11" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="79" t="s">
+    <row r="157" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A157" s="75" t="s">
         <v>445</v>
       </c>
-      <c r="B86" s="11"/>
-    </row>
-    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="80" t="s">
+      <c r="B157" s="11"/>
+    </row>
+    <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="76" t="s">
         <v>446</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B159" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="81" t="s">
+    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="77" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-    </row>
-    <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="80" t="s">
+    <row r="161" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A161" s="11"/>
+    </row>
+    <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B162" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="81" t="s">
+    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="77" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
-      <c r="B93" t="s">
+    <row r="164" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A164" s="11"/>
+      <c r="B164" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="80" t="s">
+    <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="76" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="81" t="s">
+    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="77" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-    </row>
-    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="80" t="s">
+    <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A167" s="11"/>
+    </row>
+    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B168" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="82" t="s">
+    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="78" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="82" t="s">
+    <row r="170" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="78" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="82" t="s">
+    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="78" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="82" t="s">
+    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="78" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="82" t="s">
+    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="78" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="82" t="s">
+    <row r="174" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="78" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="82" t="s">
+    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="78" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="82" t="s">
+    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="78" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="82" t="s">
+    <row r="177" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="78" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="82" t="s">
+    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="78" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="81" t="s">
+    <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="77" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="55" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="55" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="83" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="79" t="s">
         <v>477</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B181" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="84" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="80" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="84" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="80" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="84" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="80" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="84" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="80" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="85" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="81" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
+    <row r="188" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A188" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B188" s="11" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A164" s="56" t="s">
+    <row r="235" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A235" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="B164" s="11"/>
-    </row>
-    <row r="165" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A165" s="11" t="s">
+      <c r="B235" s="11"/>
+    </row>
+    <row r="236" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A236" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B236" s="11" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A166" s="11" t="s">
+    <row r="237" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A237" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B237" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="11" t="s">
+    <row r="238" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A238" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B238" s="11" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A168" s="11" t="s">
+    <row r="239" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A239" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B239" s="11" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A169" s="11" t="s">
+    <row r="240" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A240" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B240" s="11" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-    </row>
-    <row r="171" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-    </row>
-    <row r="172" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A172" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="B172" s="66"/>
-    </row>
-    <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A173" s="67" t="s">
-        <v>366</v>
-      </c>
-      <c r="B173" s="68" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="B174" s="70" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A175" s="72"/>
-      <c r="B175" s="72"/>
-    </row>
-    <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A176" s="73" t="s">
-        <v>383</v>
-      </c>
-      <c r="B176" s="11"/>
-    </row>
-    <row r="177" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A177" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A178" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A179" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B179" s="71" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A180" s="71"/>
-      <c r="B180" s="11"/>
-    </row>
-    <row r="181" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-    </row>
-    <row r="182" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-    </row>
-    <row r="183" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-    </row>
-    <row r="184" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-    </row>
-    <row r="185" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-    </row>
-    <row r="186" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-    </row>
-    <row r="187" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-    </row>
-    <row r="188" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-    </row>
-    <row r="189" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-    </row>
-    <row r="190" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-    </row>
-    <row r="191" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-    </row>
-    <row r="192" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-    </row>
-    <row r="193" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-    </row>
-    <row r="194" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-    </row>
-    <row r="195" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-    </row>
-    <row r="196" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-    </row>
-    <row r="197" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A197" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B197" s="11"/>
-    </row>
-    <row r="198" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-    </row>
-    <row r="199" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-    </row>
-    <row r="200" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A200" s="74" t="s">
-        <v>408</v>
-      </c>
-      <c r="B200" s="11"/>
-    </row>
-    <row r="201" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A201" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A202" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A203" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A204" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A205" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B205" s="11"/>
-    </row>
-    <row r="206" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A206" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A207" s="74" t="s">
-        <v>386</v>
-      </c>
-      <c r="B207" s="11"/>
-    </row>
-    <row r="208" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A208" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A209" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B209" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A210" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A211" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A212" s="71" t="s">
-        <v>391</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A213" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-    </row>
-    <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="B215" s="11"/>
-    </row>
-    <row r="216" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A216" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="B216" s="11" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A217" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B217" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A218" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B218" s="11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
-    </row>
-    <row r="220" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A220" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B220" s="11"/>
-    </row>
-    <row r="221" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A221" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B221" s="11"/>
-    </row>
-    <row r="222" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A222" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B222" s="11"/>
-    </row>
-    <row r="223" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
-    </row>
-    <row r="224" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
-    </row>
-    <row r="225" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
-    </row>
-    <row r="226" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
-    </row>
-    <row r="227" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A227" s="11"/>
-      <c r="B227" s="11"/>
-    </row>
-    <row r="228" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
-    </row>
-    <row r="229" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11"/>
-    </row>
-    <row r="230" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-    </row>
-    <row r="231" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
-    </row>
-    <row r="232" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
-    </row>
-    <row r="233" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
-    </row>
-    <row r="234" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
-    </row>
-    <row r="235" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
-    </row>
-    <row r="236" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
-    </row>
-    <row r="237" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
-    </row>
-    <row r="238" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
-    </row>
-    <row r="239" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
-    </row>
-    <row r="240" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
     </row>
     <row r="241" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
     </row>
-    <row r="242" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
     </row>
     <row r="243" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
+      <c r="A243" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="B243" s="62"/>
     </row>
     <row r="244" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
-    </row>
-    <row r="245" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A245" s="11"/>
-      <c r="B245" s="11"/>
+      <c r="A244" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B244" s="64" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="B245" s="66" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="246" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
+      <c r="A246" s="68"/>
+      <c r="B246" s="68"/>
     </row>
     <row r="247" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A247" s="11"/>
+      <c r="A247" s="69" t="s">
+        <v>383</v>
+      </c>
       <c r="B247" s="11"/>
     </row>
     <row r="248" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
+      <c r="A248" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="249" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
+      <c r="A249" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="250" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
+      <c r="A250" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B250" s="67" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="251" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A251" s="11"/>
+      <c r="A251" s="67"/>
       <c r="B251" s="11"/>
     </row>
     <row r="252" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -9091,6 +9505,362 @@
     <row r="259" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
+    </row>
+    <row r="260" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A260" s="11"/>
+      <c r="B260" s="11"/>
+    </row>
+    <row r="261" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A261" s="11"/>
+      <c r="B261" s="11"/>
+    </row>
+    <row r="262" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A262" s="11"/>
+      <c r="B262" s="11"/>
+    </row>
+    <row r="263" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A263" s="11"/>
+      <c r="B263" s="11"/>
+    </row>
+    <row r="264" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A264" s="11"/>
+      <c r="B264" s="11"/>
+    </row>
+    <row r="265" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A265" s="11"/>
+      <c r="B265" s="11"/>
+    </row>
+    <row r="266" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A266" s="11"/>
+      <c r="B266" s="11"/>
+    </row>
+    <row r="267" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A267" s="11"/>
+      <c r="B267" s="11"/>
+    </row>
+    <row r="268" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A268" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B268" s="11"/>
+    </row>
+    <row r="269" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A269" s="11"/>
+      <c r="B269" s="11"/>
+    </row>
+    <row r="270" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A270" s="11"/>
+      <c r="B270" s="11"/>
+    </row>
+    <row r="271" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A271" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B271" s="11"/>
+    </row>
+    <row r="272" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A272" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A273" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A274" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A275" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A276" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B276" s="11"/>
+    </row>
+    <row r="277" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A277" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A278" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="B278" s="11"/>
+    </row>
+    <row r="279" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A279" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A280" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A281" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A282" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A283" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A284" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A285" s="11"/>
+      <c r="B285" s="11"/>
+    </row>
+    <row r="286" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A286" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="B286" s="11"/>
+    </row>
+    <row r="287" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A287" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A288" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A289" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A290" s="11"/>
+      <c r="B290" s="11"/>
+    </row>
+    <row r="291" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A291" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B291" s="11"/>
+    </row>
+    <row r="292" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A292" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B292" s="11"/>
+    </row>
+    <row r="293" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A293" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B293" s="11"/>
+    </row>
+    <row r="294" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A294" s="11"/>
+      <c r="B294" s="11"/>
+    </row>
+    <row r="295" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A295" s="11"/>
+      <c r="B295" s="11"/>
+    </row>
+    <row r="296" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A296" s="11"/>
+      <c r="B296" s="11"/>
+    </row>
+    <row r="297" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A297" s="11"/>
+      <c r="B297" s="11"/>
+    </row>
+    <row r="298" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A298" s="11"/>
+      <c r="B298" s="11"/>
+    </row>
+    <row r="299" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A299" s="11"/>
+      <c r="B299" s="11"/>
+    </row>
+    <row r="300" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A300" s="11"/>
+      <c r="B300" s="11"/>
+    </row>
+    <row r="301" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A301" s="11"/>
+      <c r="B301" s="11"/>
+    </row>
+    <row r="302" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A302" s="11"/>
+      <c r="B302" s="11"/>
+    </row>
+    <row r="303" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A303" s="11"/>
+      <c r="B303" s="11"/>
+    </row>
+    <row r="304" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A304" s="11"/>
+      <c r="B304" s="11"/>
+    </row>
+    <row r="305" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A305" s="11"/>
+      <c r="B305" s="11"/>
+    </row>
+    <row r="306" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A306" s="11"/>
+      <c r="B306" s="11"/>
+    </row>
+    <row r="307" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A307" s="11"/>
+      <c r="B307" s="11"/>
+    </row>
+    <row r="308" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A308" s="11"/>
+      <c r="B308" s="11"/>
+    </row>
+    <row r="309" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A309" s="11"/>
+      <c r="B309" s="11"/>
+    </row>
+    <row r="310" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A310" s="11"/>
+      <c r="B310" s="11"/>
+    </row>
+    <row r="311" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A311" s="11"/>
+      <c r="B311" s="11"/>
+    </row>
+    <row r="312" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A312" s="11"/>
+      <c r="B312" s="11"/>
+    </row>
+    <row r="313" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A313" s="11"/>
+      <c r="B313" s="11"/>
+    </row>
+    <row r="314" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A314" s="11"/>
+      <c r="B314" s="11"/>
+    </row>
+    <row r="315" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A315" s="11"/>
+      <c r="B315" s="11"/>
+    </row>
+    <row r="316" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A316" s="11"/>
+      <c r="B316" s="11"/>
+    </row>
+    <row r="317" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A317" s="11"/>
+      <c r="B317" s="11"/>
+    </row>
+    <row r="318" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A318" s="11"/>
+      <c r="B318" s="11"/>
+    </row>
+    <row r="319" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A319" s="11"/>
+      <c r="B319" s="11"/>
+    </row>
+    <row r="320" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A320" s="11"/>
+      <c r="B320" s="11"/>
+    </row>
+    <row r="321" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A321" s="11"/>
+      <c r="B321" s="11"/>
+    </row>
+    <row r="322" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A322" s="11"/>
+      <c r="B322" s="11"/>
+    </row>
+    <row r="323" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A323" s="11"/>
+      <c r="B323" s="11"/>
+    </row>
+    <row r="324" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A324" s="11"/>
+      <c r="B324" s="11"/>
+    </row>
+    <row r="325" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A325" s="11"/>
+      <c r="B325" s="11"/>
+    </row>
+    <row r="326" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A326" s="11"/>
+      <c r="B326" s="11"/>
+    </row>
+    <row r="327" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A327" s="11"/>
+      <c r="B327" s="11"/>
+    </row>
+    <row r="328" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A328" s="11"/>
+      <c r="B328" s="11"/>
+    </row>
+    <row r="329" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A329" s="11"/>
+      <c r="B329" s="11"/>
+    </row>
+    <row r="330" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A330" s="11"/>
+      <c r="B330" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
